--- a/v2/TruthTableControl.xlsx
+++ b/v2/TruthTableControl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Documents\Documents\JLS Circuits\Project 2\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\JLS\CIS-451-Project-2\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>RegDest</t>
   </si>
@@ -168,6 +168,30 @@
   </si>
   <si>
     <t>UnsignedSkip</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>bneq</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>OPCodeBIN</t>
   </si>
 </sst>
 </file>
@@ -191,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -298,19 +322,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color auto="1"/>
       </left>
@@ -359,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -381,19 +392,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -676,15 +685,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="27" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -701,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>19</v>
@@ -713,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>22</v>
@@ -761,7 +771,7 @@
         <v>36</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>37</v>
@@ -853,528 +863,1356 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="6">
+        <f ca="1">DEC2BIN(B2,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:AA3" ca="1" si="0">DEC2BIN(C2,C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B4" s="8">
         <v>20</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C4" s="8">
         <v>21</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="8">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="8">
         <v>24</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="8">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="8">
         <v>8</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="8">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="8">
         <v>27</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q4" s="8">
         <v>25</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="8" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="8">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="8">
         <v>22</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y4" s="8">
         <v>23</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z4" s="8">
         <v>26</v>
       </c>
-      <c r="AA3" s="9"/>
+      <c r="AA4" s="9"/>
     </row>
-    <row r="4" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="13"/>
+    <row r="5" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>1</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12">
+        <v>1</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="12">
+        <v>1</v>
+      </c>
+      <c r="W12" s="12">
+        <v>1</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="15"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>1</v>
+      </c>
+      <c r="T13" s="12">
+        <v>1</v>
+      </c>
+      <c r="U13" s="12">
+        <v>1</v>
+      </c>
+      <c r="V13" s="12">
+        <v>1</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0</v>
+      </c>
+      <c r="S14" s="12">
+        <v>0</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0</v>
+      </c>
+      <c r="V14" s="12">
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
+        <v>0</v>
+      </c>
+      <c r="X14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <v>0</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0</v>
+      </c>
+      <c r="X17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="15"/>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0</v>
+      </c>
+      <c r="R18" s="12">
+        <v>0</v>
+      </c>
+      <c r="S18" s="12">
+        <v>0</v>
+      </c>
+      <c r="T18" s="12">
+        <v>0</v>
+      </c>
+      <c r="U18" s="12">
+        <v>0</v>
+      </c>
+      <c r="V18" s="12">
+        <v>0</v>
+      </c>
+      <c r="W18" s="12">
+        <v>0</v>
+      </c>
+      <c r="X18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="17"/>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>1</v>
+      </c>
+      <c r="S19" s="13">
+        <v>0</v>
+      </c>
+      <c r="T19" s="13">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
+        <v>0</v>
+      </c>
+      <c r="W19" s="13">
+        <v>0</v>
+      </c>
+      <c r="X19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>